--- a/data/trans_orig/P05A04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A04-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>246354</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>235414</v>
+        <v>235169</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>254356</v>
+        <v>254482</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9263760955623821</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8852372646402608</v>
+        <v>0.8843154614034012</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9564674113327062</v>
+        <v>0.956939416491006</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>227</v>
@@ -765,19 +765,19 @@
         <v>239587</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>227870</v>
+        <v>229809</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>246616</v>
+        <v>246794</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9302560878827862</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8847625319743836</v>
+        <v>0.8922909018016434</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9575488858941272</v>
+        <v>0.9582403740906391</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>474</v>
@@ -786,19 +786,19 @@
         <v>485940</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>471773</v>
+        <v>471949</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>497155</v>
+        <v>497082</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.928285020081638</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9012202327961024</v>
+        <v>0.9015564774641288</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9497074119866838</v>
+        <v>0.9495692256304045</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>19579</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11577</v>
+        <v>11451</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30519</v>
+        <v>30764</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07362390443761793</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0435325886672938</v>
+        <v>0.04306058350899413</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1147627353597392</v>
+        <v>0.1156845385965989</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -836,19 +836,19 @@
         <v>17962</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10933</v>
+        <v>10755</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29679</v>
+        <v>27740</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06974391211721376</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04245111410587254</v>
+        <v>0.04175962590936085</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1152374680256158</v>
+        <v>0.1077090981983564</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -857,19 +857,19 @@
         <v>37542</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>26327</v>
+        <v>26400</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51709</v>
+        <v>51533</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.071714979918362</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05029258801331592</v>
+        <v>0.0504307743695955</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0987797672038975</v>
+        <v>0.09844352253587116</v>
       </c>
     </row>
     <row r="6">
@@ -1008,19 +1008,19 @@
         <v>391303</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>371651</v>
+        <v>371958</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>409168</v>
+        <v>408341</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7952719150464266</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7553316778929658</v>
+        <v>0.7559559138802054</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8315799172203819</v>
+        <v>0.8298985256490276</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>392</v>
@@ -1029,19 +1029,19 @@
         <v>390366</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>371511</v>
+        <v>371718</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>408842</v>
+        <v>410099</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7761177079063528</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7386310101284487</v>
+        <v>0.7390409696236586</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8128509325152596</v>
+        <v>0.8153497964283091</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>762</v>
@@ -1050,19 +1050,19 @@
         <v>781669</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>753880</v>
+        <v>753846</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>805307</v>
+        <v>806802</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.785589551009901</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7576610046393263</v>
+        <v>0.7576277935750112</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8093465737017487</v>
+        <v>0.8108489784555376</v>
       </c>
     </row>
     <row r="9">
@@ -1079,19 +1079,19 @@
         <v>85012</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>68554</v>
+        <v>70181</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>104400</v>
+        <v>103767</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1727762399379072</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1393264529022454</v>
+        <v>0.1426331614980226</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2121799346455597</v>
+        <v>0.2108923597960393</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>79</v>
@@ -1100,19 +1100,19 @@
         <v>83377</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>68386</v>
+        <v>66766</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>101700</v>
+        <v>99671</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1657684705968154</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1359636787762811</v>
+        <v>0.1327424207210391</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2021976992865539</v>
+        <v>0.1981629821378459</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>158</v>
@@ -1121,19 +1121,19 @@
         <v>168389</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>144768</v>
+        <v>145120</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>195865</v>
+        <v>191916</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1692338446120001</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1454945130084844</v>
+        <v>0.1458480211450902</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1968476069430194</v>
+        <v>0.1928791471473068</v>
       </c>
     </row>
     <row r="10">
@@ -1150,19 +1150,19 @@
         <v>15721</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9494</v>
+        <v>9345</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25633</v>
+        <v>25256</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03195184501566618</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0192952441168332</v>
+        <v>0.01899310120627168</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05209627328148451</v>
+        <v>0.05132902776773024</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -1171,19 +1171,19 @@
         <v>29230</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19000</v>
+        <v>19244</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40434</v>
+        <v>40986</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05811382149683179</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03777632677243433</v>
+        <v>0.03825954067206887</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0803895456579085</v>
+        <v>0.08148842497434157</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -1192,19 +1192,19 @@
         <v>44951</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31638</v>
+        <v>32349</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57724</v>
+        <v>59673</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04517660437809883</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03179641660575468</v>
+        <v>0.03251140755386143</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05801325424288997</v>
+        <v>0.05997216461081704</v>
       </c>
     </row>
     <row r="11">
@@ -1296,19 +1296,19 @@
         <v>313031</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>307049</v>
+        <v>308445</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>315870</v>
+        <v>315875</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9880517195200178</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.969171023171374</v>
+        <v>0.9735789723680087</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.997013370526785</v>
+        <v>0.9970290055355187</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>328</v>
@@ -1317,19 +1317,19 @@
         <v>328463</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>321502</v>
+        <v>321542</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>331646</v>
+        <v>331551</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.984873682072007</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.964000509479857</v>
+        <v>0.9641194327748477</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9944183316047619</v>
+        <v>0.9941324391645572</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>632</v>
@@ -1338,19 +1338,19 @@
         <v>641494</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>634785</v>
+        <v>633452</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>645918</v>
+        <v>645621</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.986421916040388</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.976105485222191</v>
+        <v>0.9740554144922069</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9932246099086796</v>
+        <v>0.9927676445295803</v>
       </c>
     </row>
     <row r="13">
@@ -1367,19 +1367,19 @@
         <v>3785</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9767</v>
+        <v>8371</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01194828047998217</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002986629473215007</v>
+        <v>0.002970994464481366</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0308289768286258</v>
+        <v>0.0264210276319913</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1388,19 +1388,19 @@
         <v>4033</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1006</v>
+        <v>1151</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9995</v>
+        <v>11282</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01209148140522117</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003015242828377731</v>
+        <v>0.003451308525713843</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02996976968735658</v>
+        <v>0.03382840470312624</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1409,19 +1409,19 @@
         <v>7818</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3805</v>
+        <v>3827</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14658</v>
+        <v>15429</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01202171868518231</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005850749144819831</v>
+        <v>0.005884762704106488</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02253940152239176</v>
+        <v>0.02372468955109142</v>
       </c>
     </row>
     <row r="14">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5101</v>
+        <v>5104</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003034836522771853</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01529585829759825</v>
+        <v>0.01530492475876101</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4334</v>
+        <v>5034</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001556365274429731</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.006664196981767134</v>
+        <v>0.007741477300349815</v>
       </c>
     </row>
     <row r="15">
@@ -1576,19 +1576,19 @@
         <v>338482</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>329432</v>
+        <v>329343</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>344672</v>
+        <v>344903</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9551115068248829</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9295740565444712</v>
+        <v>0.929324236315659</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9725796332345062</v>
+        <v>0.9732296551530766</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>369</v>
@@ -1597,19 +1597,19 @@
         <v>356089</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>347156</v>
+        <v>347946</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>361329</v>
+        <v>361129</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9682988914149665</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9440069132664678</v>
+        <v>0.9461557930495579</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9825487124942687</v>
+        <v>0.9820030205180263</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>711</v>
@@ -1618,19 +1618,19 @@
         <v>694571</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>682761</v>
+        <v>681257</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>702808</v>
+        <v>703086</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9618271533970747</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9454730914667284</v>
+        <v>0.9433908441967978</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.973233281448476</v>
+        <v>0.9736179831906184</v>
       </c>
     </row>
     <row r="17">
@@ -1647,19 +1647,19 @@
         <v>11403</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6554</v>
+        <v>6458</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19214</v>
+        <v>18905</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03217742781408637</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0184934059268713</v>
+        <v>0.01822148291705445</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0542175724156372</v>
+        <v>0.05334416029481398</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -1668,19 +1668,19 @@
         <v>8718</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4047</v>
+        <v>3933</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16843</v>
+        <v>16014</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02370703311731443</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01100581737476714</v>
+        <v>0.01069480158848323</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04580163498188854</v>
+        <v>0.04354503261423095</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -1689,19 +1689,19 @@
         <v>20122</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13114</v>
+        <v>13251</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28756</v>
+        <v>31775</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02786389796122513</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01816062062252975</v>
+        <v>0.01834956022578025</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03982123210816524</v>
+        <v>0.04400160448686738</v>
       </c>
     </row>
     <row r="18">
@@ -1718,19 +1718,19 @@
         <v>4505</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1744</v>
+        <v>969</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11444</v>
+        <v>11524</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01271106536103077</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.004922011893042812</v>
+        <v>0.002735555734726325</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03229325594206525</v>
+        <v>0.03251644536184489</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>2940</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8079</v>
+        <v>8612</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.007994075467719082</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.002548207384870473</v>
+        <v>0.002553977863354565</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02196769181088437</v>
+        <v>0.02341818234374524</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -1760,19 +1760,19 @@
         <v>7444</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3552</v>
+        <v>3522</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>15975</v>
+        <v>15597</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01030894864170022</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004918097995801416</v>
+        <v>0.004877555034190668</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02212191410224852</v>
+        <v>0.02159903241802313</v>
       </c>
     </row>
     <row r="19">
@@ -1864,19 +1864,19 @@
         <v>142963</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>129593</v>
+        <v>128446</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>155806</v>
+        <v>154269</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7061996211358732</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6401540507267899</v>
+        <v>0.6344901859704754</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7696420917511047</v>
+        <v>0.762046781732555</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>138</v>
@@ -1885,19 +1885,19 @@
         <v>144099</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>129845</v>
+        <v>129809</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>156899</v>
+        <v>156318</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7095456470537886</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.639360975503333</v>
+        <v>0.6391809560138147</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7725720895647362</v>
+        <v>0.7697157558602399</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>284</v>
@@ -1906,19 +1906,19 @@
         <v>287062</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>267559</v>
+        <v>267810</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>304128</v>
+        <v>306500</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7078753002416966</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6597815896523214</v>
+        <v>0.6604020609508549</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7499594763655425</v>
+        <v>0.7558081782110879</v>
       </c>
     </row>
     <row r="21">
@@ -1935,19 +1935,19 @@
         <v>39608</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>29287</v>
+        <v>29910</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>51670</v>
+        <v>51978</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1956517994360211</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1446715832596724</v>
+        <v>0.1477473496479387</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2552350328271162</v>
+        <v>0.2567596732954285</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>40</v>
@@ -1956,19 +1956,19 @@
         <v>42967</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>32219</v>
+        <v>31627</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>56584</v>
+        <v>56348</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2115713086223669</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1586452722966666</v>
+        <v>0.1557298820839276</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2786225146361142</v>
+        <v>0.2774580510794458</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>79</v>
@@ -1977,19 +1977,19 @@
         <v>82575</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>67496</v>
+        <v>65951</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>100596</v>
+        <v>101911</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.20362423885309</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1664414150654277</v>
+        <v>0.1626302814761186</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2480637342914081</v>
+        <v>0.2513067330386054</v>
       </c>
     </row>
     <row r="22">
@@ -2006,19 +2006,19 @@
         <v>19869</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12358</v>
+        <v>12797</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29714</v>
+        <v>29472</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09814857942810565</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06104701064484147</v>
+        <v>0.06321176475299772</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1467781443348419</v>
+        <v>0.1455830579058005</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -2027,19 +2027,19 @@
         <v>16020</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9418</v>
+        <v>9849</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24231</v>
+        <v>25251</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07888304432384451</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04637568668942561</v>
+        <v>0.04849522955189572</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1193126721692603</v>
+        <v>0.1243386739470557</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>36</v>
@@ -2048,19 +2048,19 @@
         <v>35889</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26408</v>
+        <v>25543</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48883</v>
+        <v>47815</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08850046090521335</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06512016290615101</v>
+        <v>0.06298756685518175</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1205420676772897</v>
+        <v>0.1179084318546895</v>
       </c>
     </row>
     <row r="23">
@@ -2152,19 +2152,19 @@
         <v>257081</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>247429</v>
+        <v>248284</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>262969</v>
+        <v>262932</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9493000818189244</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9136608257914433</v>
+        <v>0.9168149557653321</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9710434146712501</v>
+        <v>0.9709054651752459</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>258</v>
@@ -2173,19 +2173,19 @@
         <v>265451</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>257075</v>
+        <v>257911</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>271220</v>
+        <v>271145</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9575813917274515</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9273646047035935</v>
+        <v>0.9303797443321442</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9783922943939038</v>
+        <v>0.9781200027969302</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>511</v>
@@ -2194,19 +2194,19 @@
         <v>522532</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>511165</v>
+        <v>510311</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>531544</v>
+        <v>531959</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9534890837198048</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9327472477488983</v>
+        <v>0.9311882828456012</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9699327853017436</v>
+        <v>0.9706916980513646</v>
       </c>
     </row>
     <row r="25">
@@ -2223,19 +2223,19 @@
         <v>13730</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7842</v>
+        <v>7879</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23382</v>
+        <v>22527</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0506999181810756</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02895658532874986</v>
+        <v>0.0290945348247539</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08633917420855651</v>
+        <v>0.08318504423466776</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -2244,19 +2244,19 @@
         <v>11759</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5990</v>
+        <v>6065</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20135</v>
+        <v>19299</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04241860827254856</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02160770560609629</v>
+        <v>0.02187999720306984</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07263539529640704</v>
+        <v>0.06962025566785557</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -2265,19 +2265,19 @@
         <v>25489</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>16477</v>
+        <v>16062</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>36856</v>
+        <v>37710</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04651091628019522</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03006721469825633</v>
+        <v>0.02930830194863544</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06725275225110174</v>
+        <v>0.06881171715439878</v>
       </c>
     </row>
     <row r="26">
@@ -2416,19 +2416,19 @@
         <v>587825</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>575476</v>
+        <v>576031</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>596089</v>
+        <v>596056</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9601709933939855</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.939999764616244</v>
+        <v>0.9409065471029687</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9736687248369955</v>
+        <v>0.9736156160892295</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>594</v>
@@ -2437,19 +2437,19 @@
         <v>611123</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>600553</v>
+        <v>599734</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>619955</v>
+        <v>620414</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9597507104217708</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9431498940475092</v>
+        <v>0.9418643345596097</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9736207321107045</v>
+        <v>0.9743410562570932</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1164</v>
@@ -2458,19 +2458,19 @@
         <v>1198949</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1183356</v>
+        <v>1183993</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1211978</v>
+        <v>1212158</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9599567225487285</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9474723574053767</v>
+        <v>0.9479820711514059</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9703888115983912</v>
+        <v>0.9705333320403629</v>
       </c>
     </row>
     <row r="29">
@@ -2487,19 +2487,19 @@
         <v>19977</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12415</v>
+        <v>12128</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>31976</v>
+        <v>31058</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.032631310085608</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02027835850673642</v>
+        <v>0.01981081919902131</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05223023001149261</v>
+        <v>0.05073162411940524</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>20</v>
@@ -2508,19 +2508,19 @@
         <v>20736</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>12889</v>
+        <v>13068</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>31272</v>
+        <v>31295</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0325654302454631</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02024254434242388</v>
+        <v>0.02052216796793056</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04911201258288692</v>
+        <v>0.0491474231786044</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>40</v>
@@ -2529,19 +2529,19 @@
         <v>40713</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>29418</v>
+        <v>28192</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>54597</v>
+        <v>54345</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03259772288373099</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02355401130247474</v>
+        <v>0.02257276170922546</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04371424443973675</v>
+        <v>0.043512018676902</v>
       </c>
     </row>
     <row r="30">
@@ -2558,19 +2558,19 @@
         <v>4406</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9552</v>
+        <v>9792</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.007197696520406542</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.002843309185688088</v>
+        <v>0.002835365489513732</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01560188200303173</v>
+        <v>0.01599387419494777</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -2579,19 +2579,19 @@
         <v>4893</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1943</v>
+        <v>985</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>10848</v>
+        <v>10771</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.007683859332766083</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.003051015693500442</v>
+        <v>0.001546381282102861</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01703672033516046</v>
+        <v>0.01691531604882739</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>11</v>
@@ -2600,19 +2600,19 @@
         <v>9299</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4638</v>
+        <v>5312</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>17608</v>
+        <v>17431</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.007445554567540509</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.003713165060898591</v>
+        <v>0.004253072144560641</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01409787867940425</v>
+        <v>0.01395632626912276</v>
       </c>
     </row>
     <row r="31">
@@ -2704,19 +2704,19 @@
         <v>618990</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>598793</v>
+        <v>597419</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>637732</v>
+        <v>637324</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8486138992627897</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8209241024517373</v>
+        <v>0.8190404605019705</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8743078970535461</v>
+        <v>0.8737486707174553</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>620</v>
@@ -2725,19 +2725,19 @@
         <v>651453</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>632366</v>
+        <v>628480</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>670821</v>
+        <v>671575</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.848862058412909</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8239914152940595</v>
+        <v>0.8189266208462713</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8740986476433519</v>
+        <v>0.8750811412690491</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1228</v>
@@ -2746,19 +2746,19 @@
         <v>1270443</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1241498</v>
+        <v>1241938</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1296038</v>
+        <v>1296495</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8487411313328755</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8294035468156261</v>
+        <v>0.8296979677966563</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8658404175730096</v>
+        <v>0.8661453559522314</v>
       </c>
     </row>
     <row r="33">
@@ -2775,19 +2775,19 @@
         <v>96657</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>79738</v>
+        <v>80529</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>116623</v>
+        <v>116397</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1325137982252655</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1093186660502236</v>
+        <v>0.1104026924270703</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.159885703556877</v>
+        <v>0.1595763688365481</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>91</v>
@@ -2796,19 +2796,19 @@
         <v>97442</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>78914</v>
+        <v>79625</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>115796</v>
+        <v>118320</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1269699089953104</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1028265663999399</v>
+        <v>0.1037541950439896</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1508856080472386</v>
+        <v>0.1541737330453344</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>191</v>
@@ -2817,19 +2817,19 @@
         <v>194099</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>168686</v>
+        <v>169889</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>218439</v>
+        <v>219817</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1296714266958866</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1126937269363845</v>
+        <v>0.1134974046167584</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1459318047606966</v>
+        <v>0.1468521973879792</v>
       </c>
     </row>
     <row r="34">
@@ -2846,19 +2846,19 @@
         <v>13766</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>7600</v>
+        <v>7217</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>24543</v>
+        <v>23122</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01887230251194477</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01041939808843748</v>
+        <v>0.009894520505317776</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03364718950270223</v>
+        <v>0.03169943421639694</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>18</v>
@@ -2867,19 +2867,19 @@
         <v>18548</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>11177</v>
+        <v>11250</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>27754</v>
+        <v>29609</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02416803259178059</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01456359084259212</v>
+        <v>0.01465939800005197</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03616398081286731</v>
+        <v>0.03858186577544118</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>31</v>
@@ -2888,19 +2888,19 @@
         <v>32313</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>22506</v>
+        <v>22818</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>46215</v>
+        <v>45738</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02158744197123784</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01503547010196462</v>
+        <v>0.01524412512773164</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03087482641532894</v>
+        <v>0.03055597702543278</v>
       </c>
     </row>
     <row r="35">
@@ -2992,19 +2992,19 @@
         <v>2896029</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2860923</v>
+        <v>2861688</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2933412</v>
+        <v>2931492</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.8927205353075325</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8818988972245514</v>
+        <v>0.882134563990203</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.9042439148875759</v>
+        <v>0.9036520573782991</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2926</v>
@@ -3013,19 +3013,19 @@
         <v>2986630</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2947626</v>
+        <v>2952177</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3023100</v>
+        <v>3022479</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8925260382570467</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8808699864089238</v>
+        <v>0.882229925943687</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.9034247511243366</v>
+        <v>0.9032390170037156</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5766</v>
@@ -3034,19 +3034,19 @@
         <v>5882660</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5828389</v>
+        <v>5827803</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5928242</v>
+        <v>5931475</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8926217784256887</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8843868527418339</v>
+        <v>0.8842979786991886</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8995383769771796</v>
+        <v>0.9000289439233781</v>
       </c>
     </row>
     <row r="37">
@@ -3063,19 +3063,19 @@
         <v>289752</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>255950</v>
+        <v>257621</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>323992</v>
+        <v>324452</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08931810231787411</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07889837927835724</v>
+        <v>0.07941335722941301</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09987268086662542</v>
+        <v>0.1000145516864994</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>269</v>
@@ -3084,19 +3084,19 @@
         <v>286995</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>252965</v>
+        <v>256129</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>321798</v>
+        <v>320493</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.08576560456119783</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07559603760206487</v>
+        <v>0.07654175889514513</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.09616618843605959</v>
+        <v>0.09577635561876474</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>553</v>
@@ -3105,19 +3105,19 @@
         <v>576747</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>532179</v>
+        <v>533167</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>627793</v>
+        <v>627043</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08751430323541999</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08075168667542638</v>
+        <v>0.0809015457815819</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.09525989618372552</v>
+        <v>0.09514608373636463</v>
       </c>
     </row>
     <row r="38">
@@ -3134,19 +3134,19 @@
         <v>58268</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>44372</v>
+        <v>45139</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>73235</v>
+        <v>76053</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01796136237459342</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01367799675572511</v>
+        <v>0.01391454232605249</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02257517186340422</v>
+        <v>0.02344400323818696</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>71</v>
@@ -3155,19 +3155,19 @@
         <v>72642</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>56724</v>
+        <v>56290</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>91412</v>
+        <v>91139</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02170835718175549</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.0169515561622651</v>
+        <v>0.01682163841635102</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02731762226042642</v>
+        <v>0.02723597245219675</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>128</v>
@@ -3176,19 +3176,19 @@
         <v>130909</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>110182</v>
+        <v>108762</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>153615</v>
+        <v>156664</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01986391833889131</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01671876500307976</v>
+        <v>0.01650327803805001</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02330924281434639</v>
+        <v>0.02377181512727963</v>
       </c>
     </row>
     <row r="39">
@@ -3524,19 +3524,19 @@
         <v>282272</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>273718</v>
+        <v>273577</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>286963</v>
+        <v>286980</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9685274835610218</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9391778414225516</v>
+        <v>0.938694493334764</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9846264945761382</v>
+        <v>0.9846833281833861</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>232</v>
@@ -3545,19 +3545,19 @@
         <v>259764</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>249604</v>
+        <v>249125</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>268049</v>
+        <v>268451</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9276006429759742</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8913184338608413</v>
+        <v>0.889608886682164</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9571854348573537</v>
+        <v>0.9586190305072683</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>502</v>
@@ -3566,19 +3566,19 @@
         <v>542036</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>529416</v>
+        <v>528037</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>552333</v>
+        <v>551077</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9484724650020392</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9263895760484633</v>
+        <v>0.9239765257014928</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9664914738033731</v>
+        <v>0.9642927751503473</v>
       </c>
     </row>
     <row r="5">
@@ -3595,19 +3595,19 @@
         <v>7389</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3430</v>
+        <v>3530</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15602</v>
+        <v>16246</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02535418076671682</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01176781130917037</v>
+        <v>0.01211170264412722</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05353175248931328</v>
+        <v>0.05574477458710823</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -3616,19 +3616,19 @@
         <v>10658</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4883</v>
+        <v>5108</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19291</v>
+        <v>19818</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03806002223483738</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01743819641893605</v>
+        <v>0.01824172924798454</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06888807786468282</v>
+        <v>0.07076996332646961</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -3637,19 +3637,19 @@
         <v>18048</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10794</v>
+        <v>11021</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28753</v>
+        <v>30077</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0315803121467126</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01888767403462955</v>
+        <v>0.01928408302364353</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05031320822339938</v>
+        <v>0.05263029874090019</v>
       </c>
     </row>
     <row r="6">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6193</v>
+        <v>5976</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.006118335672261379</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02124822908766153</v>
+        <v>0.02050354982475594</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -3687,19 +3687,19 @@
         <v>9616</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4710</v>
+        <v>4625</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18411</v>
+        <v>18361</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0343393347891884</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01681801079308858</v>
+        <v>0.01651569237860244</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06574357984746214</v>
+        <v>0.06556604302912022</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -3708,19 +3708,19 @@
         <v>11399</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5646</v>
+        <v>5706</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>20556</v>
+        <v>21258</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01994722285124827</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009880166595360377</v>
+        <v>0.009984889657415154</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03596909261844464</v>
+        <v>0.03719800195670438</v>
       </c>
     </row>
     <row r="7">
@@ -3812,19 +3812,19 @@
         <v>404165</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>384050</v>
+        <v>385383</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>422053</v>
+        <v>422165</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8086636769794499</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7684156691742361</v>
+        <v>0.7710828437471119</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8444529998860599</v>
+        <v>0.8446773234800005</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>401</v>
@@ -3833,19 +3833,19 @@
         <v>437505</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>418941</v>
+        <v>418925</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>453557</v>
+        <v>452896</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8447552607214803</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8089108946489433</v>
+        <v>0.8088811684890437</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8757504695135782</v>
+        <v>0.8744730943145024</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>783</v>
@@ -3854,19 +3854,19 @@
         <v>841670</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>816745</v>
+        <v>813453</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>869073</v>
+        <v>865630</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8270306483059708</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8025391272985795</v>
+        <v>0.799304442626311</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8539573235526094</v>
+        <v>0.8505735736012753</v>
       </c>
     </row>
     <row r="9">
@@ -3883,19 +3883,19 @@
         <v>66344</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>51816</v>
+        <v>51278</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>87022</v>
+        <v>82875</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.132743083115091</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1036755899496259</v>
+        <v>0.1025986532462422</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1741153281545834</v>
+        <v>0.165818723270287</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>59</v>
@@ -3904,19 +3904,19 @@
         <v>63725</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>49347</v>
+        <v>49445</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>80796</v>
+        <v>79955</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1230434057178093</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09528153927923549</v>
+        <v>0.09547017020013884</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1560054607455218</v>
+        <v>0.1543809199549459</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>120</v>
@@ -3925,19 +3925,19 @@
         <v>130069</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>108837</v>
+        <v>108740</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>151810</v>
+        <v>153542</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1278069268658736</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1069440029916434</v>
+        <v>0.1068486409633399</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1491695050922984</v>
+        <v>0.1508718464908181</v>
       </c>
     </row>
     <row r="10">
@@ -3954,19 +3954,19 @@
         <v>29285</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19453</v>
+        <v>19083</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42755</v>
+        <v>43944</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05859323990545912</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03892105210730896</v>
+        <v>0.03818158937088267</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08554575681345793</v>
+        <v>0.08792423532969285</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -3975,19 +3975,19 @@
         <v>16677</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9557</v>
+        <v>8573</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27674</v>
+        <v>27985</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03220133356071038</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01845227422965834</v>
+        <v>0.01655276928033884</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05343493634250523</v>
+        <v>0.05403450613426133</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -3996,19 +3996,19 @@
         <v>45962</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32262</v>
+        <v>32783</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62962</v>
+        <v>65236</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04516242482815557</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03170097903865465</v>
+        <v>0.03221231145753813</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06186732418459005</v>
+        <v>0.06410170862730317</v>
       </c>
     </row>
     <row r="11">
@@ -4100,19 +4100,19 @@
         <v>312578</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>304559</v>
+        <v>304178</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>317512</v>
+        <v>317426</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9674514559013853</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9426313079355521</v>
+        <v>0.9414537593717559</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9827225158420474</v>
+        <v>0.9824584873507992</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>300</v>
@@ -4121,19 +4121,19 @@
         <v>323027</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>313004</v>
+        <v>313580</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>329650</v>
+        <v>329802</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.952984858529128</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9234159717237992</v>
+        <v>0.9251153404614038</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9725246277567999</v>
+        <v>0.9729731328979159</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>608</v>
@@ -4142,19 +4142,19 @@
         <v>635604</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>623935</v>
+        <v>622498</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>644297</v>
+        <v>644286</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9600447750936533</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9424195736676417</v>
+        <v>0.9402490662135685</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9731752433195433</v>
+        <v>0.973158460427043</v>
       </c>
     </row>
     <row r="13">
@@ -4171,19 +4171,19 @@
         <v>10516</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5582</v>
+        <v>5668</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18535</v>
+        <v>18916</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0325485440986147</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01727748415795267</v>
+        <v>0.01754151264920073</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05736869206444872</v>
+        <v>0.05854624062824384</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -4192,19 +4192,19 @@
         <v>13991</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7733</v>
+        <v>7933</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23719</v>
+        <v>23420</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04127462880156029</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02281324546618924</v>
+        <v>0.02340322556725883</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06997405586716747</v>
+        <v>0.06909194425935675</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -4213,19 +4213,19 @@
         <v>24507</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16080</v>
+        <v>15777</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36140</v>
+        <v>36191</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03701616854635768</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02428853143758129</v>
+        <v>0.02382971889852436</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05458679567609507</v>
+        <v>0.05466402363410161</v>
       </c>
     </row>
     <row r="14">
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5852</v>
+        <v>5862</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005740512669311799</v>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01726396776538865</v>
+        <v>0.0172936786037457</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6855</v>
+        <v>6803</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002939056359989086</v>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01035482388140627</v>
+        <v>0.01027489087102315</v>
       </c>
     </row>
     <row r="15">
@@ -4380,19 +4380,19 @@
         <v>359115</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>350072</v>
+        <v>347618</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>365327</v>
+        <v>364411</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9741984690948468</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9496668378589527</v>
+        <v>0.9430093601993823</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9910501574444975</v>
+        <v>0.988565268002751</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>351</v>
@@ -4401,19 +4401,19 @@
         <v>368775</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>358594</v>
+        <v>359247</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>375813</v>
+        <v>375676</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9578606070820205</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9314152965206035</v>
+        <v>0.9331115763394026</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9761400491825261</v>
+        <v>0.9757833021857518</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>683</v>
@@ -4422,19 +4422,19 @@
         <v>727891</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>715476</v>
+        <v>715380</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>737773</v>
+        <v>736307</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9658520623903692</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9493784444336921</v>
+        <v>0.9492505089695726</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9789644027572544</v>
+        <v>0.9770192495128545</v>
       </c>
     </row>
     <row r="17">
@@ -4451,19 +4451,19 @@
         <v>7550</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2825</v>
+        <v>3012</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16380</v>
+        <v>17087</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02048090534845364</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007663575596471605</v>
+        <v>0.008171055140697797</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04443598944608812</v>
+        <v>0.0463533337366988</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -4472,19 +4472,19 @@
         <v>13147</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7052</v>
+        <v>7617</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21651</v>
+        <v>21335</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0341472981527677</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01831702617498636</v>
+        <v>0.01978489299184177</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05623656872000423</v>
+        <v>0.05541673474120362</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -4493,19 +4493,19 @@
         <v>20696</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12370</v>
+        <v>13194</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>31807</v>
+        <v>32088</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02746255768695429</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01641392278348353</v>
+        <v>0.01750696956758539</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04220566482464742</v>
+        <v>0.04257783902019504</v>
       </c>
     </row>
     <row r="18">
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9776</v>
+        <v>10682</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.005320625556699614</v>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02651885546684709</v>
+        <v>0.02897720468273326</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -4543,19 +4543,19 @@
         <v>3077</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8369</v>
+        <v>9370</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.00799209476521179</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.002467506320170479</v>
+        <v>0.002493679290300858</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02173798754310895</v>
+        <v>0.02433800277028359</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -4564,19 +4564,19 @@
         <v>5038</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1110</v>
+        <v>1925</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13626</v>
+        <v>13815</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.006685379922676412</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.001473030265296077</v>
+        <v>0.002554197378490229</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01808064861282296</v>
+        <v>0.01833123083108976</v>
       </c>
     </row>
     <row r="19">
@@ -4668,19 +4668,19 @@
         <v>149442</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>135666</v>
+        <v>132939</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>162484</v>
+        <v>163738</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7028653329997855</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.638075527591847</v>
+        <v>0.6252476867186197</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7642080735499713</v>
+        <v>0.7701062932642089</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>147</v>
@@ -4689,19 +4689,19 @@
         <v>156096</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>141141</v>
+        <v>143543</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>168403</v>
+        <v>169517</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7108498780826846</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6427445927256966</v>
+        <v>0.6536854930372676</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7668927386138503</v>
+        <v>0.7719667036884932</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>283</v>
@@ -4710,19 +4710,19 @@
         <v>305538</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>284679</v>
+        <v>285116</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>323163</v>
+        <v>323662</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7069220140952848</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6586613984621945</v>
+        <v>0.6596724373772044</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7477018811275303</v>
+        <v>0.7488541701668742</v>
       </c>
     </row>
     <row r="21">
@@ -4739,19 +4739,19 @@
         <v>45580</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>33444</v>
+        <v>33664</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>58985</v>
+        <v>59637</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2143749900051211</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1572940401247823</v>
+        <v>0.1583316596975182</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2774229973992113</v>
+        <v>0.2804893483766757</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>44</v>
@@ -4760,19 +4760,19 @@
         <v>42634</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>31148</v>
+        <v>32428</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>54878</v>
+        <v>54836</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.194152499657898</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1418454980722183</v>
+        <v>0.1476741073864598</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2499079732924556</v>
+        <v>0.2497198824610548</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>87</v>
@@ -4781,19 +4781,19 @@
         <v>88214</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>73878</v>
+        <v>73651</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>106324</v>
+        <v>107391</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.204100617020341</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1709315260226179</v>
+        <v>0.1704059219822077</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2460014299051369</v>
+        <v>0.2484711536227126</v>
       </c>
     </row>
     <row r="22">
@@ -4810,19 +4810,19 @@
         <v>17596</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10764</v>
+        <v>9858</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28193</v>
+        <v>26542</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08275967699509343</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05062667947898549</v>
+        <v>0.04636422572442345</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1325988006022816</v>
+        <v>0.1248318759171088</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -4831,19 +4831,19 @@
         <v>20861</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13295</v>
+        <v>12992</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29681</v>
+        <v>30159</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09499762225941739</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06054534740682912</v>
+        <v>0.05916569948413557</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1351629056216633</v>
+        <v>0.1373399228474013</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -4852,19 +4852,19 @@
         <v>38457</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26366</v>
+        <v>27556</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>51655</v>
+        <v>51553</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08897736888437416</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06100351500706359</v>
+        <v>0.06375651013794108</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1195142970036939</v>
+        <v>0.1192785392192912</v>
       </c>
     </row>
     <row r="23">
@@ -4956,19 +4956,19 @@
         <v>265047</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>256704</v>
+        <v>256303</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>269943</v>
+        <v>269981</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9673911258860735</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9369394499639176</v>
+        <v>0.9354769032062205</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.985261262038594</v>
+        <v>0.9854016308924283</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>262</v>
@@ -4977,19 +4977,19 @@
         <v>272968</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>265685</v>
+        <v>266752</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>277019</v>
+        <v>277014</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9780987126531407</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.95200244695267</v>
+        <v>0.9558272356068579</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9926136578982476</v>
+        <v>0.9925977685737533</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>515</v>
@@ -4998,19 +4998,19 @@
         <v>538015</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>528006</v>
+        <v>528841</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>544846</v>
+        <v>544959</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9727942832708351</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.954698398948586</v>
+        <v>0.9562068941470198</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9851465498828231</v>
+        <v>0.9853510727839307</v>
       </c>
     </row>
     <row r="25">
@@ -5027,19 +5027,19 @@
         <v>6922</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2903</v>
+        <v>2898</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14145</v>
+        <v>14260</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0252631106953215</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01059721223651349</v>
+        <v>0.01057572555372453</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05162904628366981</v>
+        <v>0.05204633222336088</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -5048,19 +5048,19 @@
         <v>6112</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2061</v>
+        <v>2066</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13395</v>
+        <v>12328</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02190128734685929</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007386342101752329</v>
+        <v>0.007402231426246771</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04799755304733048</v>
+        <v>0.04417276439314215</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -5069,19 +5069,19 @@
         <v>13034</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6865</v>
+        <v>6921</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>22661</v>
+        <v>21398</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0235667003792851</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01241358121579091</v>
+        <v>0.01251333832105476</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04097288593908599</v>
+        <v>0.0386907490360218</v>
       </c>
     </row>
     <row r="26">
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6962</v>
+        <v>6249</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007345763418605056</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02540878252088257</v>
+        <v>0.02280978262938515</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6584</v>
+        <v>7100</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003639016349879801</v>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01190378260933094</v>
+        <v>0.01283677073379538</v>
       </c>
     </row>
     <row r="27">
@@ -5236,19 +5236,19 @@
         <v>652899</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>647669</v>
+        <v>647214</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>655818</v>
+        <v>655807</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9940307718568016</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9860681723902992</v>
+        <v>0.9853749383344127</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9984748668019653</v>
+        <v>0.9984584303528182</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>623</v>
@@ -5257,19 +5257,19 @@
         <v>679550</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>671306</v>
+        <v>671189</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>683848</v>
+        <v>683920</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9890701262473015</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9770711149995249</v>
+        <v>0.976901615959558</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9953264931682811</v>
+        <v>0.9954317428809929</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1234</v>
@@ -5278,19 +5278,19 @@
         <v>1332449</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1323474</v>
+        <v>1324137</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1337869</v>
+        <v>1337910</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9914946396040638</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9848162554882937</v>
+        <v>0.9853099838267262</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9955275460117013</v>
+        <v>0.9955583553197281</v>
       </c>
     </row>
     <row r="29">
@@ -5307,19 +5307,19 @@
         <v>3921</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1002</v>
+        <v>1013</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9151</v>
+        <v>9606</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.005969228143198451</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001525133198034756</v>
+        <v>0.001541569647181685</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0139318276097017</v>
+        <v>0.01462506166558726</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -5328,19 +5328,19 @@
         <v>6537</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2389</v>
+        <v>2343</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>14262</v>
+        <v>14654</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.009514855306367229</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003477476823358082</v>
+        <v>0.003410439556991072</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02075808057494428</v>
+        <v>0.02132860133964964</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>10</v>
@@ -5349,19 +5349,19 @@
         <v>10458</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5416</v>
+        <v>5156</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>19292</v>
+        <v>18476</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.00778193159201456</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004029977953189753</v>
+        <v>0.003836560217732947</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01435534211465628</v>
+        <v>0.01374844299298035</v>
       </c>
     </row>
     <row r="30">
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4902</v>
+        <v>4585</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.001415018446331286</v>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.007134425586677088</v>
+        <v>0.006672694708633133</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -5415,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4809</v>
+        <v>4862</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0007234288039216027</v>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.003578416874213976</v>
+        <v>0.003617515533968153</v>
       </c>
     </row>
     <row r="31">
@@ -5516,19 +5516,19 @@
         <v>675181</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>655458</v>
+        <v>654765</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>691720</v>
+        <v>693156</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8734116760380087</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8478974441581159</v>
+        <v>0.8470014947034045</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8948063806612327</v>
+        <v>0.8966633814657563</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>666</v>
@@ -5537,19 +5537,19 @@
         <v>722149</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>702185</v>
+        <v>701496</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>739304</v>
+        <v>740509</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8852269406266082</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8607552603365569</v>
+        <v>0.8599103035149125</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9062562387556999</v>
+        <v>0.9077337852516563</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1287</v>
@@ -5558,19 +5558,19 @@
         <v>1397330</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1367277</v>
+        <v>1372032</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1422042</v>
+        <v>1423362</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.879478221458852</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.860562676842312</v>
+        <v>0.863555483465771</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8950319612098959</v>
+        <v>0.8958630607879146</v>
       </c>
     </row>
     <row r="33">
@@ -5587,19 +5587,19 @@
         <v>80673</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>64246</v>
+        <v>63943</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>99882</v>
+        <v>100199</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1043583670276706</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.08310895877076031</v>
+        <v>0.0827168795673003</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1292073938666412</v>
+        <v>0.1296169212193448</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>77</v>
@@ -5608,19 +5608,19 @@
         <v>85891</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>69945</v>
+        <v>69390</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>105476</v>
+        <v>107000</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1052877428841096</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.08574066349718377</v>
+        <v>0.08506005155473967</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1292955115414059</v>
+        <v>0.1311630647947924</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>151</v>
@@ -5629,19 +5629,19 @@
         <v>166565</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>143555</v>
+        <v>140721</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>193232</v>
+        <v>189605</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1048355548895119</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.09035364726447243</v>
+        <v>0.08856965204733931</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1216200545375457</v>
+        <v>0.1193373375907388</v>
       </c>
     </row>
     <row r="34">
@@ -5658,19 +5658,19 @@
         <v>17185</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>10173</v>
+        <v>10962</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>27440</v>
+        <v>26936</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02222995693432065</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01315922572537349</v>
+        <v>0.01417998462011897</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03549572012375694</v>
+        <v>0.03484437640413801</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -5679,19 +5679,19 @@
         <v>7738</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2969</v>
+        <v>3008</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>16005</v>
+        <v>15434</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.009485316489282181</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003639239531110726</v>
+        <v>0.003686933152257913</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01961915832928051</v>
+        <v>0.01891972973316247</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>24</v>
@@ -5700,19 +5700,19 @@
         <v>24923</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>16387</v>
+        <v>16619</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>36392</v>
+        <v>35845</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01568622365163608</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01031381882286546</v>
+        <v>0.01045985788899144</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02290530457645083</v>
+        <v>0.02256055303885178</v>
       </c>
     </row>
     <row r="35">
@@ -5804,19 +5804,19 @@
         <v>3100700</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3065416</v>
+        <v>3065995</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3130176</v>
+        <v>3134146</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.9121268559022373</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.9017476695276009</v>
+        <v>0.9019178255153618</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.9207978923005966</v>
+        <v>0.9219658370764552</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2982</v>
@@ -5825,19 +5825,19 @@
         <v>3219833</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3187089</v>
+        <v>3184472</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3253040</v>
+        <v>3253486</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.9138385141951643</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.9045450975501373</v>
+        <v>0.9038023364731232</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.923263148610341</v>
+        <v>0.9233896343233586</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5895</v>
@@ -5846,19 +5846,19 @@
         <v>6320533</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>6271404</v>
+        <v>6266288</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6364633</v>
+        <v>6366820</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.9129980143896108</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.9059013157263417</v>
+        <v>0.9051624025886973</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.9193682670107434</v>
+        <v>0.9196842518522571</v>
       </c>
     </row>
     <row r="37">
@@ -5875,19 +5875,19 @@
         <v>228895</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>199178</v>
+        <v>200652</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>259607</v>
+        <v>263095</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06733360423239029</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05859178515662462</v>
+        <v>0.05902554815798267</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07636810233854041</v>
+        <v>0.07739405346427666</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>227</v>
@@ -5896,19 +5896,19 @@
         <v>242696</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>211666</v>
+        <v>211846</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>273815</v>
+        <v>275272</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06888077077267682</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06007422303981089</v>
+        <v>0.060125230210509</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07771301606468607</v>
+        <v>0.07812651786689133</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>438</v>
@@ -5917,19 +5917,19 @@
         <v>471591</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>430693</v>
+        <v>432211</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>512468</v>
+        <v>519655</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06812104368132728</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06221346204173392</v>
+        <v>0.06243267853379162</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07402579534173753</v>
+        <v>0.0750639553376314</v>
       </c>
     </row>
     <row r="38">
@@ -5946,19 +5946,19 @@
         <v>69822</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>53201</v>
+        <v>53388</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>90040</v>
+        <v>89290</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02053953986537238</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01564997412745121</v>
+        <v>0.01570509689934604</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02648695306438848</v>
+        <v>0.02626634972449769</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>57</v>
@@ -5967,19 +5967,19 @@
         <v>60887</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>45656</v>
+        <v>46741</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>78301</v>
+        <v>78753</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01728071503215888</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01295798748931884</v>
+        <v>0.01326574745162912</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02222317500097713</v>
+        <v>0.02235126700276959</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>120</v>
@@ -5988,19 +5988,19 @@
         <v>130710</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>108829</v>
+        <v>109128</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>155441</v>
+        <v>157988</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01888094192906193</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01572031641396119</v>
+        <v>0.01576352056232191</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02245334848097614</v>
+        <v>0.02282128796544036</v>
       </c>
     </row>
     <row r="39">
@@ -6336,19 +6336,19 @@
         <v>242621</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>225978</v>
+        <v>228400</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>253999</v>
+        <v>253721</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8406580042769756</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7829897875100799</v>
+        <v>0.7913812695973899</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8800815865754048</v>
+        <v>0.8791172009395684</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>228</v>
@@ -6357,19 +6357,19 @@
         <v>238791</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>226308</v>
+        <v>224493</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>250448</v>
+        <v>249274</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8384649598507224</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7946342985502138</v>
+        <v>0.7882612534560712</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8793980528260548</v>
+        <v>0.8752751112148753</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>448</v>
@@ -6378,19 +6378,19 @@
         <v>481412</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>462996</v>
+        <v>460069</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>498741</v>
+        <v>498470</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8395687773060695</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8074524284230929</v>
+        <v>0.8023466249136573</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.869790521010545</v>
+        <v>0.86931777726193</v>
       </c>
     </row>
     <row r="5">
@@ -6407,19 +6407,19 @@
         <v>37932</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27269</v>
+        <v>27574</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52795</v>
+        <v>51915</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1314308966500383</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09448326809744365</v>
+        <v>0.09553969417238753</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1829286930147985</v>
+        <v>0.1798793551418331</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -6428,19 +6428,19 @@
         <v>36569</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26366</v>
+        <v>26556</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48673</v>
+        <v>48784</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1284048529102197</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09257777842014397</v>
+        <v>0.09324481828205348</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1709059670212142</v>
+        <v>0.1712948056378165</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>70</v>
@@ -6449,19 +6449,19 @@
         <v>74501</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>58528</v>
+        <v>59544</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>91893</v>
+        <v>94287</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1299279410249289</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1020713019408976</v>
+        <v>0.1038427483502913</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1602593687836457</v>
+        <v>0.1644340655188294</v>
       </c>
     </row>
     <row r="6">
@@ -6478,19 +6478,19 @@
         <v>8055</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3917</v>
+        <v>3875</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15047</v>
+        <v>14862</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02791109907298613</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01357271602394441</v>
+        <v>0.01342770552388588</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05213549189349394</v>
+        <v>0.05149473786490182</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -6499,19 +6499,19 @@
         <v>9435</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4765</v>
+        <v>4493</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17167</v>
+        <v>17217</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03313018723905782</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0167304953438521</v>
+        <v>0.01577651567425285</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06027765617846464</v>
+        <v>0.06045328108696175</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -6520,19 +6520,19 @@
         <v>17491</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10094</v>
+        <v>10598</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>26537</v>
+        <v>26951</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03050328166900153</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01760344857893671</v>
+        <v>0.01848194259252014</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04628017130238202</v>
+        <v>0.04700118271196832</v>
       </c>
     </row>
     <row r="7">
@@ -6624,19 +6624,19 @@
         <v>363071</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>339915</v>
+        <v>340619</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>382751</v>
+        <v>382739</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7254802609091489</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6792114631440763</v>
+        <v>0.6806175735997736</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.764803997817626</v>
+        <v>0.7647811915216197</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>350</v>
@@ -6645,19 +6645,19 @@
         <v>375656</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>352076</v>
+        <v>354172</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>395624</v>
+        <v>395166</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7239213124844243</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6784804749699487</v>
+        <v>0.6825209503832004</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7624025939777389</v>
+        <v>0.7615199480809904</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>695</v>
@@ -6666,19 +6666,19 @@
         <v>738727</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>707612</v>
+        <v>707851</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>767204</v>
+        <v>768358</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7246866697203215</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6941625750267328</v>
+        <v>0.6943970905963343</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7526216670989709</v>
+        <v>0.7537537138882082</v>
       </c>
     </row>
     <row r="9">
@@ -6695,19 +6695,19 @@
         <v>68516</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>53817</v>
+        <v>54417</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>85274</v>
+        <v>85834</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1369071833066361</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1075354290940478</v>
+        <v>0.1087357196948123</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1703923306422455</v>
+        <v>0.1715121430050715</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>60</v>
@@ -6716,19 +6716,19 @@
         <v>66189</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>51372</v>
+        <v>51063</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>83426</v>
+        <v>81478</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.127552574172978</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09899886549993372</v>
+        <v>0.09840218722128534</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1607686946880073</v>
+        <v>0.1570147021488704</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>125</v>
@@ -6737,19 +6737,19 @@
         <v>134705</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>112560</v>
+        <v>114672</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>157960</v>
+        <v>157305</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1321451685628149</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1104202900492903</v>
+        <v>0.1124925017184949</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1549577525902369</v>
+        <v>0.1543152910805989</v>
       </c>
     </row>
     <row r="10">
@@ -6766,19 +6766,19 @@
         <v>68869</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55670</v>
+        <v>54162</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>88588</v>
+        <v>86358</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.137612555784215</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1112393259057722</v>
+        <v>0.1082258985193822</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1770144700443131</v>
+        <v>0.1725586941006864</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -6787,19 +6787,19 @@
         <v>77073</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62498</v>
+        <v>61124</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94890</v>
+        <v>96514</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1485261133425977</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1204385004134537</v>
+        <v>0.1177906556372844</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1828618369003474</v>
+        <v>0.1859908101225367</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>133</v>
@@ -6808,19 +6808,19 @@
         <v>145942</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>123570</v>
+        <v>125154</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>168240</v>
+        <v>171458</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1431681617168637</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1212209019145526</v>
+        <v>0.1227752744335013</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1650425196378223</v>
+        <v>0.1681989550646072</v>
       </c>
     </row>
     <row r="11">
@@ -6912,19 +6912,19 @@
         <v>302499</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>293018</v>
+        <v>292693</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>308779</v>
+        <v>308960</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9526332246694755</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.922775568122049</v>
+        <v>0.9217522921791447</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9724105427391549</v>
+        <v>0.9729808738081362</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>308</v>
@@ -6933,19 +6933,19 @@
         <v>312352</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>302243</v>
+        <v>303370</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>320163</v>
+        <v>320872</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9364977789668166</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9061897028317331</v>
+        <v>0.9095685034931478</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9599165341519447</v>
+        <v>0.9620429526753507</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>627</v>
@@ -6954,19 +6954,19 @@
         <v>614851</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>600370</v>
+        <v>602476</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>624945</v>
+        <v>625875</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9443673482609408</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9221260330373312</v>
+        <v>0.9253598099480599</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9598712564073594</v>
+        <v>0.9612991664536784</v>
       </c>
     </row>
     <row r="13">
@@ -6983,19 +6983,19 @@
         <v>15041</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8761</v>
+        <v>8580</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24522</v>
+        <v>24847</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04736677533052445</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02758945726084502</v>
+        <v>0.02701912619186372</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07722443187795106</v>
+        <v>0.07824770782085537</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -7004,19 +7004,19 @@
         <v>20278</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12685</v>
+        <v>12130</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30356</v>
+        <v>29784</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06079908517500743</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03803382311645644</v>
+        <v>0.03636899291626217</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09101443359989476</v>
+        <v>0.08929943182312754</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -7025,19 +7025,19 @@
         <v>35319</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25391</v>
+        <v>24729</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49498</v>
+        <v>47834</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05424788757878071</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03899864506428848</v>
+        <v>0.0379825100614912</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07602595698517213</v>
+        <v>0.07346953906013909</v>
       </c>
     </row>
     <row r="14">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4559</v>
+        <v>4588</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.00270313585817595</v>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0136691260221671</v>
+        <v>0.01375630536913383</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4535</v>
+        <v>5328</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001384764160278435</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.006965379085465458</v>
+        <v>0.008183921960465084</v>
       </c>
     </row>
     <row r="15">
@@ -7192,19 +7192,19 @@
         <v>353975</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>347014</v>
+        <v>346824</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>358990</v>
+        <v>359007</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9729802145434923</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9538459021324596</v>
+        <v>0.9533233567626506</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9867644757712072</v>
+        <v>0.9868112450225888</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>346</v>
@@ -7213,19 +7213,19 @@
         <v>374351</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>365863</v>
+        <v>366222</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>379288</v>
+        <v>379142</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9741313229667137</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9520430776923966</v>
+        <v>0.952978314368372</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9869782170649213</v>
+        <v>0.9865981485483573</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>684</v>
@@ -7234,19 +7234,19 @@
         <v>728325</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>717381</v>
+        <v>718254</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>735862</v>
+        <v>735487</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9735715308072302</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9589428659786878</v>
+        <v>0.9601097349813982</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9836463036593064</v>
+        <v>0.9831456140522506</v>
       </c>
     </row>
     <row r="17">
@@ -7263,19 +7263,19 @@
         <v>7962</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3870</v>
+        <v>3744</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14284</v>
+        <v>15507</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02188644668596899</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01063743858355943</v>
+        <v>0.01029249578363554</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03926311130393654</v>
+        <v>0.04262547795617239</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -7284,19 +7284,19 @@
         <v>7053</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3047</v>
+        <v>2843</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15193</v>
+        <v>15043</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01835376842687177</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.007929602691833237</v>
+        <v>0.0073984781758371</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03953392740349171</v>
+        <v>0.03914352216760294</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -7305,19 +7305,19 @@
         <v>15016</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8683</v>
+        <v>8879</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26188</v>
+        <v>24176</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0200717348247597</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01160729085734885</v>
+        <v>0.01186904908469826</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0350058775911022</v>
+        <v>0.0323164517562327</v>
       </c>
     </row>
     <row r="18">
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6547</v>
+        <v>6417</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.005133338770538742</v>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01799505347214676</v>
+        <v>0.01763727557995675</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -7355,19 +7355,19 @@
         <v>2888</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7830</v>
+        <v>9006</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.007514908606414504</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.002392182308859675</v>
+        <v>0.002410797594976242</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02037611130726208</v>
+        <v>0.02343450251235589</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -7376,19 +7376,19 @@
         <v>4755</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1869</v>
+        <v>1881</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10918</v>
+        <v>10637</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.006356734368010013</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.002498062523724566</v>
+        <v>0.002514696734034096</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01459482171857922</v>
+        <v>0.01421821045295422</v>
       </c>
     </row>
     <row r="19">
@@ -7480,19 +7480,19 @@
         <v>182590</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>172171</v>
+        <v>170989</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>191476</v>
+        <v>191813</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8644489049098606</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8151225824896599</v>
+        <v>0.8095280211772398</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9065211341584157</v>
+        <v>0.9081159440121491</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>188</v>
@@ -7501,19 +7501,19 @@
         <v>181810</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>169198</v>
+        <v>170419</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>191782</v>
+        <v>192179</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.835500441616546</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7775408849700632</v>
+        <v>0.7831544298706397</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8813265447371753</v>
+        <v>0.8831494049319091</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>371</v>
@@ -7522,19 +7522,19 @@
         <v>364400</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>349446</v>
+        <v>348104</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>378368</v>
+        <v>378421</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.849759147649223</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8148875692604691</v>
+        <v>0.8117596689339771</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8823314700805674</v>
+        <v>0.8824561182095016</v>
       </c>
     </row>
     <row r="21">
@@ -7551,19 +7551,19 @@
         <v>26653</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18158</v>
+        <v>18175</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>37203</v>
+        <v>38642</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1261865819967589</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.085965507519888</v>
+        <v>0.08604967490139528</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1761320930237481</v>
+        <v>0.1829441550737154</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -7572,19 +7572,19 @@
         <v>29093</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19625</v>
+        <v>19942</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>40713</v>
+        <v>40473</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.133696935076511</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09018783980646393</v>
+        <v>0.09164304804692384</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1870957384242648</v>
+        <v>0.1859922012074904</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>54</v>
@@ -7593,19 +7593,19 @@
         <v>55747</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>41549</v>
+        <v>43589</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>69858</v>
+        <v>71850</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1299976742321357</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09689094969088437</v>
+        <v>0.1016474092388173</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1629042445067661</v>
+        <v>0.1675501451571394</v>
       </c>
     </row>
     <row r="22">
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6869</v>
+        <v>7469</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009364513093380418</v>
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03252250996964474</v>
+        <v>0.0353623318445196</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -7643,19 +7643,19 @@
         <v>6703</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2758</v>
+        <v>2687</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13112</v>
+        <v>12289</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03080262330694306</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01267565242640106</v>
+        <v>0.01234846172243982</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06025670090565999</v>
+        <v>0.05647170613000137</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -7664,19 +7664,19 @@
         <v>8681</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3933</v>
+        <v>4046</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15644</v>
+        <v>15609</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02024317811864132</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009170979582217144</v>
+        <v>0.009433933771698754</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03648019192369105</v>
+        <v>0.03639956856382413</v>
       </c>
     </row>
     <row r="23">
@@ -7768,19 +7768,19 @@
         <v>248317</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>239543</v>
+        <v>238535</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>254673</v>
+        <v>253848</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9472372095048391</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9137677470792533</v>
+        <v>0.9099200462934763</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9714822765677027</v>
+        <v>0.9683341033352859</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>253</v>
@@ -7789,19 +7789,19 @@
         <v>262567</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>254234</v>
+        <v>255127</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>266921</v>
+        <v>267132</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9686031955398645</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9378644214482124</v>
+        <v>0.9411570014382458</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9846640707590825</v>
+        <v>0.9854420549621654</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>497</v>
@@ -7810,19 +7810,19 @@
         <v>510883</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>500469</v>
+        <v>499585</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>518032</v>
+        <v>518423</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.958099088885369</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9385685251016529</v>
+        <v>0.9369097269407731</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9715059401201324</v>
+        <v>0.9722392579375192</v>
       </c>
     </row>
     <row r="25">
@@ -7839,19 +7839,19 @@
         <v>13832</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7476</v>
+        <v>8301</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22606</v>
+        <v>23614</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0527627904951609</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02851772343229725</v>
+        <v>0.03166589666471412</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08623225292074665</v>
+        <v>0.09007995370652357</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -7860,19 +7860,19 @@
         <v>8511</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4157</v>
+        <v>3946</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16844</v>
+        <v>15951</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03139680446013553</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01533592924091753</v>
+        <v>0.01455794503783459</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06213557855178784</v>
+        <v>0.05884299856175454</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>22</v>
@@ -7881,19 +7881,19 @@
         <v>22343</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15194</v>
+        <v>14803</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>32757</v>
+        <v>33641</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04190091111463101</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02849405987986757</v>
+        <v>0.02776074206248089</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06143147489834704</v>
+        <v>0.06309027305922686</v>
       </c>
     </row>
     <row r="26">
@@ -8032,19 +8032,19 @@
         <v>567283</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>547283</v>
+        <v>547419</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>583840</v>
+        <v>583565</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8716881902877452</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.840955878435831</v>
+        <v>0.8411646637216051</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8971296379808723</v>
+        <v>0.8967062280439106</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>560</v>
@@ -8053,19 +8053,19 @@
         <v>600449</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>581863</v>
+        <v>581886</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>616515</v>
+        <v>616123</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8786143524416842</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8514171532689409</v>
+        <v>0.8514506296027333</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9021229611322632</v>
+        <v>0.9015492627605131</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1062</v>
@@ -8074,19 +8074,19 @@
         <v>1167733</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1140159</v>
+        <v>1142109</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1190169</v>
+        <v>1189461</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8752359336320348</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8545689383553491</v>
+        <v>0.8560303099252654</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8920519887124877</v>
+        <v>0.8915217111872057</v>
       </c>
     </row>
     <row r="29">
@@ -8103,19 +8103,19 @@
         <v>72084</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>56020</v>
+        <v>56363</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>90610</v>
+        <v>90691</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1107649929068664</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08608106696448101</v>
+        <v>0.0866079911356655</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1392318066920578</v>
+        <v>0.1393558382030191</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>69</v>
@@ -8124,19 +8124,19 @@
         <v>73191</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>58733</v>
+        <v>58275</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>92414</v>
+        <v>90353</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1070976546726788</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08594119854752598</v>
+        <v>0.08527099022269141</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1352253421100611</v>
+        <v>0.1322096976812528</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>132</v>
@@ -8145,19 +8145,19 @@
         <v>145275</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>123967</v>
+        <v>124854</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>171461</v>
+        <v>171904</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1088864959091895</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09291577824631543</v>
+        <v>0.09358047005892575</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1285130204938015</v>
+        <v>0.128845253308845</v>
       </c>
     </row>
     <row r="30">
@@ -8174,19 +8174,19 @@
         <v>11419</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6250</v>
+        <v>5275</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>21337</v>
+        <v>19691</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01754681680538828</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.009603201770629349</v>
+        <v>0.008105267021291284</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03278671986915959</v>
+        <v>0.0302567729681906</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -8195,19 +8195,19 @@
         <v>9764</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4910</v>
+        <v>4886</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>16956</v>
+        <v>18197</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01428799288563702</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.007183903913023024</v>
+        <v>0.007148852661743756</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02481067337266474</v>
+        <v>0.02662722064165959</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>20</v>
@@ -8216,19 +8216,19 @@
         <v>21184</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>12756</v>
+        <v>12831</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>30706</v>
+        <v>30611</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01587757045877571</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.009560845432269588</v>
+        <v>0.009616868854561637</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02301452532177537</v>
+        <v>0.02294364816497773</v>
       </c>
     </row>
     <row r="31">
@@ -8320,19 +8320,19 @@
         <v>737629</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>725342</v>
+        <v>724282</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>747108</v>
+        <v>748012</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9579698934220913</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9420128118546001</v>
+        <v>0.9406362749702428</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9702807494625747</v>
+        <v>0.9714544381566312</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>721</v>
@@ -8341,19 +8341,19 @@
         <v>786355</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>773396</v>
+        <v>772150</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>797343</v>
+        <v>796793</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9619401482116072</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9460877674350603</v>
+        <v>0.944563199095188</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9753810684265791</v>
+        <v>0.974708974606087</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1433</v>
@@ -8362,19 +8362,19 @@
         <v>1523984</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1506433</v>
+        <v>1505859</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1539167</v>
+        <v>1537301</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9600143897701368</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9489578584619925</v>
+        <v>0.94859666761202</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9695784599667588</v>
+        <v>0.9684032469736673</v>
       </c>
     </row>
     <row r="33">
@@ -8391,19 +8391,19 @@
         <v>29404</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>20197</v>
+        <v>19463</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>42030</v>
+        <v>41981</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03818805851818958</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02622956587985931</v>
+        <v>0.02527748386388179</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.05458470978154491</v>
+        <v>0.05452148416514543</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>26</v>
@@ -8412,19 +8412,19 @@
         <v>30028</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>19228</v>
+        <v>19779</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>42874</v>
+        <v>44030</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.03673287050814757</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02352088490718702</v>
+        <v>0.02419558100448602</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.05244750201726251</v>
+        <v>0.05386140260006791</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>54</v>
@@ -8433,19 +8433,19 @@
         <v>59432</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>44390</v>
+        <v>46277</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>75948</v>
+        <v>77782</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03743870445151692</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02796302139839565</v>
+        <v>0.0291514736649099</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.04784248174769755</v>
+        <v>0.04899765051367317</v>
       </c>
     </row>
     <row r="34">
@@ -8462,19 +8462,19 @@
         <v>2958</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8658</v>
+        <v>8986</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003842048059719109</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.001194151020765081</v>
+        <v>0.001192440461141012</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01124464510120723</v>
+        <v>0.01166999052190652</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -8486,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5483</v>
+        <v>5048</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.001326981280245179</v>
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.006706773335572153</v>
+        <v>0.006175704515238865</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -8504,19 +8504,19 @@
         <v>4043</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1079</v>
+        <v>961</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10050</v>
+        <v>10279</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002546905778346352</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0006797782929333673</v>
+        <v>0.0006055964621222891</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.006330760562135557</v>
+        <v>0.006475293472968041</v>
       </c>
     </row>
     <row r="35">
@@ -8608,19 +8608,19 @@
         <v>2997987</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2958645</v>
+        <v>2958492</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3033496</v>
+        <v>3030819</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.8910487437635227</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8793555506720994</v>
+        <v>0.8793102085772229</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.9016027322337093</v>
+        <v>0.900806969264409</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2954</v>
@@ -8629,19 +8629,19 @@
         <v>3132330</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3094988</v>
+        <v>3094772</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3170179</v>
+        <v>3172429</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8921238961481729</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8814883693903376</v>
+        <v>0.8814270813354531</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.902903667058591</v>
+        <v>0.9035446940659982</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5817</v>
@@ -8650,19 +8650,19 @@
         <v>6130317</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>6077392</v>
+        <v>6074613</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6183857</v>
+        <v>6180770</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8915977766794007</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8839003413507835</v>
+        <v>0.8834961004342783</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8993847202398472</v>
+        <v>0.8989357034763851</v>
       </c>
     </row>
     <row r="37">
@@ -8679,19 +8679,19 @@
         <v>271425</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>240040</v>
+        <v>241126</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>307211</v>
+        <v>306049</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08067189789526905</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07134379124112787</v>
+        <v>0.07166652923755221</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09130803466724151</v>
+        <v>0.09096244798946769</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>253</v>
@@ -8700,19 +8700,19 @@
         <v>270913</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>237871</v>
+        <v>237837</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>302506</v>
+        <v>306801</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.07715923092497746</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06774849036753501</v>
+        <v>0.06773870993902288</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08615717661898441</v>
+        <v>0.08738042753608348</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>506</v>
@@ -8721,19 +8721,19 @@
         <v>542339</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>495283</v>
+        <v>501599</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>587548</v>
+        <v>591940</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0788781337584442</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07203434228614056</v>
+        <v>0.07295293042526696</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08545341221079941</v>
+        <v>0.0860922097351739</v>
       </c>
     </row>
     <row r="38">
@@ -8750,19 +8750,19 @@
         <v>95148</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>77357</v>
+        <v>74849</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>116413</v>
+        <v>117713</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02827935834120825</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02299167015372375</v>
+        <v>0.02224632129575543</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03459981401362933</v>
+        <v>0.03498623283214532</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>101</v>
@@ -8771,19 +8771,19 @@
         <v>107850</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>88620</v>
+        <v>87438</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>131333</v>
+        <v>130445</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.03071687292684961</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.02524005330427091</v>
+        <v>0.02490348785640108</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.03740520970085897</v>
+        <v>0.0371521278272585</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>189</v>
@@ -8792,19 +8792,19 @@
         <v>202997</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>175339</v>
+        <v>176693</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>231390</v>
+        <v>233220</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02952408956215517</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02550137473496872</v>
+        <v>0.02569842490315654</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.03365354025303906</v>
+        <v>0.03391973356549693</v>
       </c>
     </row>
     <row r="39">
@@ -9140,7 +9140,7 @@
         <v>318106</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>315096</v>
+        <v>314994</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>318845</v>
@@ -9149,7 +9149,7 @@
         <v>0.9976825245936853</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9882413880293347</v>
+        <v>0.9879227782018044</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -9174,7 +9174,7 @@
         <v>634167</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>631125</v>
+        <v>631198</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>634906</v>
@@ -9183,7 +9183,7 @@
         <v>0.9988361801814361</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9940449135843653</v>
+        <v>0.9941599519454088</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>1</v>
@@ -9206,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3749</v>
+        <v>3851</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002317475406314734</v>
@@ -9215,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01175861197066525</v>
+        <v>0.01207722179819764</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>3781</v>
+        <v>3708</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001163819818563915</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.005955086415634702</v>
+        <v>0.005840048054590982</v>
       </c>
     </row>
     <row r="6">
@@ -9388,19 +9388,19 @@
         <v>484878</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>467871</v>
+        <v>467840</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>497929</v>
+        <v>496548</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9178548722078104</v>
+        <v>0.9178548722078105</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.885661500624716</v>
+        <v>0.8856023212431942</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9425592873286237</v>
+        <v>0.9399452879866786</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>648</v>
@@ -9409,19 +9409,19 @@
         <v>492357</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>478828</v>
+        <v>477320</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>504547</v>
+        <v>502590</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9070349560837598</v>
+        <v>0.9070349560837597</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8821117833687316</v>
+        <v>0.8793334342115713</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9294926183601905</v>
+        <v>0.9258869780120244</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>994</v>
@@ -9430,19 +9430,19 @@
         <v>977234</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>957040</v>
+        <v>953596</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>996246</v>
+        <v>994405</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9123714375599976</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8935183936431706</v>
+        <v>0.8903021924596395</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9301214483070249</v>
+        <v>0.9284026572071031</v>
       </c>
     </row>
     <row r="9">
@@ -9459,19 +9459,19 @@
         <v>37131</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>24857</v>
+        <v>25593</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>52276</v>
+        <v>53201</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07028845433575402</v>
+        <v>0.07028845433575401</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04705308196419526</v>
+        <v>0.0484471524022494</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09895627675954589</v>
+        <v>0.1007071938513005</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>48</v>
@@ -9480,19 +9480,19 @@
         <v>38494</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>28645</v>
+        <v>28306</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>51884</v>
+        <v>51318</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07091444930923921</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0527697965670022</v>
+        <v>0.05214561717311736</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09558189241923644</v>
+        <v>0.09454037952052413</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>77</v>
@@ -9501,19 +9501,19 @@
         <v>75625</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>59357</v>
+        <v>60445</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>94780</v>
+        <v>96821</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07060570286962529</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05541722144694569</v>
+        <v>0.0564330985051085</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0884891280586937</v>
+        <v>0.09039439170751998</v>
       </c>
     </row>
     <row r="10">
@@ -9530,19 +9530,19 @@
         <v>6264</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2114</v>
+        <v>2346</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14070</v>
+        <v>14017</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01185667345643577</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004001875658548451</v>
+        <v>0.004441467025681337</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02663316264587191</v>
+        <v>0.02653325072033461</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -9551,19 +9551,19 @@
         <v>11970</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6954</v>
+        <v>7092</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20289</v>
+        <v>19479</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02205059460700097</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01281041237220327</v>
+        <v>0.01306584591794386</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03737639401499158</v>
+        <v>0.03588506518873654</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -9572,19 +9572,19 @@
         <v>18233</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10977</v>
+        <v>11479</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28132</v>
+        <v>29464</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01702285957037713</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01024799239494775</v>
+        <v>0.01071702399043923</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0262646115162809</v>
+        <v>0.02750810675606233</v>
       </c>
     </row>
     <row r="11">
@@ -9676,19 +9676,19 @@
         <v>291291</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>279948</v>
+        <v>280751</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>299453</v>
+        <v>299545</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9277574835594287</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8916314547056708</v>
+        <v>0.8941873944583683</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9537528689715227</v>
+        <v>0.9540454295748728</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>500</v>
@@ -9697,19 +9697,19 @@
         <v>330837</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>321658</v>
+        <v>321669</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>337820</v>
+        <v>338343</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9301878286969165</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9043790028001718</v>
+        <v>0.9044099104848957</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9498223877318364</v>
+        <v>0.9512923388772029</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>836</v>
@@ -9718,19 +9718,19 @@
         <v>622128</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>607894</v>
+        <v>609175</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>633709</v>
+        <v>633217</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9290483157758942</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9077916457855425</v>
+        <v>0.909705172482312</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9463421789930158</v>
+        <v>0.9456074492360174</v>
       </c>
     </row>
     <row r="13">
@@ -9747,19 +9747,19 @@
         <v>11697</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6166</v>
+        <v>6240</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20125</v>
+        <v>19993</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03725367095149801</v>
+        <v>0.037253670951498</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01963949674509836</v>
+        <v>0.01987310938925017</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06409693938401986</v>
+        <v>0.0636762427608069</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -9768,19 +9768,19 @@
         <v>16573</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10950</v>
+        <v>10335</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25330</v>
+        <v>24070</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04659832180959417</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03078696993063486</v>
+        <v>0.02905918514980714</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07121833815799589</v>
+        <v>0.06767530494020443</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -9789,19 +9789,19 @@
         <v>28270</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20044</v>
+        <v>19902</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40583</v>
+        <v>40106</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04221690691053638</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02993250726122344</v>
+        <v>0.02972007163116821</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06060492215984491</v>
+        <v>0.05989223786487367</v>
       </c>
     </row>
     <row r="14">
@@ -9818,19 +9818,19 @@
         <v>10986</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5371</v>
+        <v>5679</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20220</v>
+        <v>20117</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03498884548907322</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01710648823253413</v>
+        <v>0.01808726774592478</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06439887156789009</v>
+        <v>0.06407371984701762</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -9839,19 +9839,19 @@
         <v>8256</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4376</v>
+        <v>4433</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13931</v>
+        <v>14728</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02321384949348935</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01230244535476979</v>
+        <v>0.01246409767712668</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03916938175689878</v>
+        <v>0.0414084787455943</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -9860,19 +9860,19 @@
         <v>19242</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12764</v>
+        <v>12245</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29312</v>
+        <v>29196</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02873477731356928</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01906107565478074</v>
+        <v>0.01828558058051601</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04377343997937053</v>
+        <v>0.0435992283654851</v>
       </c>
     </row>
     <row r="15">
@@ -9964,19 +9964,19 @@
         <v>367326</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>361299</v>
+        <v>360904</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>370826</v>
+        <v>370627</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9844065973276639</v>
+        <v>0.9844065973276637</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9682541651041071</v>
+        <v>0.9671946286118476</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9937850496989471</v>
+        <v>0.993251813859399</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>579</v>
@@ -9985,19 +9985,19 @@
         <v>403422</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>387685</v>
+        <v>388517</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>411401</v>
+        <v>411385</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9585987815307809</v>
+        <v>0.9585987815307812</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9212059229928978</v>
+        <v>0.9231827028219222</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9775606210688449</v>
+        <v>0.9775220129010177</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>864</v>
@@ -10006,19 +10006,19 @@
         <v>770749</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>754054</v>
+        <v>754670</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>778775</v>
+        <v>779234</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9707274665824843</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9497012978685412</v>
+        <v>0.950476220709087</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9808356003779273</v>
+        <v>0.9814141491139748</v>
       </c>
     </row>
     <row r="17">
@@ -10035,19 +10035,19 @@
         <v>4996</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1783</v>
+        <v>1791</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10417</v>
+        <v>11032</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01338928143475018</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004777861702301184</v>
+        <v>0.00479844960703206</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02791601173860012</v>
+        <v>0.02956362060849486</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -10056,19 +10056,19 @@
         <v>16128</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8350</v>
+        <v>8171</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31647</v>
+        <v>30665</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.0383239806676199</v>
+        <v>0.03832398066761991</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01984083982639682</v>
+        <v>0.01941585791058215</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07519809910865558</v>
+        <v>0.07286567414764668</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -10077,19 +10077,19 @@
         <v>21125</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13241</v>
+        <v>12909</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>37722</v>
+        <v>37418</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02660562696288878</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01667680964555815</v>
+        <v>0.0162577700134197</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04750972574904485</v>
+        <v>0.04712676389988942</v>
       </c>
     </row>
     <row r="18">
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4241</v>
+        <v>4332</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.002204121237586092</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01136435811200665</v>
+        <v>0.01160860752570937</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -10130,16 +10130,16 @@
         <v>421</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3490</v>
+        <v>3429</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.003077237801598982</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0009995484283087544</v>
+        <v>0.000999652588213348</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.008292445949956121</v>
+        <v>0.008148725033993935</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -10148,19 +10148,19 @@
         <v>2117</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5475</v>
+        <v>5514</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.002666906454627085</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0005568132259047967</v>
+        <v>0.0005585616498925502</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.006895148000633834</v>
+        <v>0.006944377326280523</v>
       </c>
     </row>
     <row r="19">
@@ -10252,19 +10252,19 @@
         <v>178975</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>167270</v>
+        <v>167103</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>186488</v>
+        <v>186807</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8702254297313802</v>
+        <v>0.8702254297313803</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8133125766750873</v>
+        <v>0.8124987040917601</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9067543273000636</v>
+        <v>0.9083095638231155</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>453</v>
@@ -10273,19 +10273,19 @@
         <v>208564</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>201436</v>
+        <v>201419</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>214243</v>
+        <v>214019</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9128106768149754</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8816127440665664</v>
+        <v>0.881535516822746</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9376627828570023</v>
+        <v>0.9366824322312707</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>700</v>
@@ -10294,19 +10294,19 @@
         <v>387539</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>374277</v>
+        <v>377005</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>397602</v>
+        <v>398011</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8926373004114825</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8620885375685681</v>
+        <v>0.8683734227607346</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9158141309989051</v>
+        <v>0.916758091899016</v>
       </c>
     </row>
     <row r="21">
@@ -10323,19 +10323,19 @@
         <v>25200</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17609</v>
+        <v>17206</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>36519</v>
+        <v>36294</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1225317134699517</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08562074838499222</v>
+        <v>0.08365794306711007</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1775658810752075</v>
+        <v>0.1764694125723527</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>41</v>
@@ -10344,19 +10344,19 @@
         <v>19922</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14243</v>
+        <v>14467</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>27050</v>
+        <v>27067</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.08718932318502447</v>
+        <v>0.08718932318502445</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06233721714299741</v>
+        <v>0.06331756776872934</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1183872559334336</v>
+        <v>0.118464483177254</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>71</v>
@@ -10365,19 +10365,19 @@
         <v>45122</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>35412</v>
+        <v>34597</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>58063</v>
+        <v>55817</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1039316316379358</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08156623271353126</v>
+        <v>0.07968796456966626</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1337384459952632</v>
+        <v>0.1285664650104474</v>
       </c>
     </row>
     <row r="22">
@@ -10397,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5772</v>
+        <v>5141</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007242856798668026</v>
@@ -10406,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02806474564620014</v>
+        <v>0.02499874717057848</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5217</v>
+        <v>5190</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003431067950581765</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01201729954646082</v>
+        <v>0.01195488089974825</v>
       </c>
     </row>
     <row r="23">
@@ -10532,19 +10532,19 @@
         <v>259267</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>251478</v>
+        <v>252105</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>264060</v>
+        <v>263639</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9577410464856876</v>
+        <v>0.9577410464856877</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9289671951552806</v>
+        <v>0.9312835978879661</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9754457774274102</v>
+        <v>0.9738905605583231</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>443</v>
@@ -10553,19 +10553,19 @@
         <v>253166</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>247538</v>
+        <v>246901</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>257635</v>
+        <v>257514</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9624269603853161</v>
+        <v>0.9624269603853162</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9410313923267442</v>
+        <v>0.938610140201348</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9794141715697533</v>
+        <v>0.9789554627570295</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>798</v>
@@ -10574,19 +10574,19 @@
         <v>512434</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>503289</v>
+        <v>503468</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>518910</v>
+        <v>519146</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.9600503931916959</v>
+        <v>0.9600503931916957</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9429181279659868</v>
+        <v>0.9432537721387325</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9721837894669886</v>
+        <v>0.9726263843829984</v>
       </c>
     </row>
     <row r="25">
@@ -10603,19 +10603,19 @@
         <v>9469</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5088</v>
+        <v>5411</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16116</v>
+        <v>16099</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03497881728712527</v>
+        <v>0.03497881728712528</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01879421033604847</v>
+        <v>0.01998803002220251</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05953350062055979</v>
+        <v>0.05947105583191546</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -10624,19 +10624,19 @@
         <v>8709</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4646</v>
+        <v>4532</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14451</v>
+        <v>14827</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03310856402506732</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01766111717443546</v>
+        <v>0.01722775299677914</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05493670300164442</v>
+        <v>0.05636653600276442</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>27</v>
@@ -10645,19 +10645,19 @@
         <v>18178</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12373</v>
+        <v>11610</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27365</v>
+        <v>26819</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03405710525770079</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02318028721231598</v>
+        <v>0.02175136629459847</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05126834502752997</v>
+        <v>0.05024538398569937</v>
       </c>
     </row>
     <row r="26">
@@ -10674,19 +10674,19 @@
         <v>1971</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5465</v>
+        <v>5580</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.007280136227187233</v>
+        <v>0.007280136227187234</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001862420313672371</v>
+        <v>0.001848428939943012</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02018644330145116</v>
+        <v>0.0206110287724303</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -10698,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3938</v>
+        <v>4025</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004464475589616624</v>
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01497237405287272</v>
+        <v>0.01529965957995524</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -10716,19 +10716,19 @@
         <v>3145</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6728</v>
+        <v>7165</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005892501550603286</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001920089521479233</v>
+        <v>0.001902845054233443</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01260563064619743</v>
+        <v>0.01342458400875832</v>
       </c>
     </row>
     <row r="27">
@@ -10820,19 +10820,19 @@
         <v>662953</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>641415</v>
+        <v>642320</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>677995</v>
+        <v>678298</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9241171978459104</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8940943736225874</v>
+        <v>0.8953558505864458</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9450846604734628</v>
+        <v>0.9455061309594845</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>908</v>
@@ -10841,19 +10841,19 @@
         <v>729165</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>717488</v>
+        <v>716196</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>739128</v>
+        <v>737983</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.9540008671238364</v>
+        <v>0.9540008671238361</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9387241089008641</v>
+        <v>0.9370329975874307</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9670359790739934</v>
+        <v>0.9655380343399447</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1464</v>
@@ -10862,19 +10862,19 @@
         <v>1392119</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1368414</v>
+        <v>1369232</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1411118</v>
+        <v>1410556</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.9395323000341855</v>
+        <v>0.9395323000341858</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.923533875927486</v>
+        <v>0.9240862330342515</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9523546988042979</v>
+        <v>0.9519755071359861</v>
       </c>
     </row>
     <row r="29">
@@ -10891,19 +10891,19 @@
         <v>26192</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15711</v>
+        <v>16054</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>43573</v>
+        <v>42078</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03651020470088356</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02190003356608699</v>
+        <v>0.0223783829227154</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06073751057549926</v>
+        <v>0.05865476121454484</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>25</v>
@@ -10912,19 +10912,19 @@
         <v>18204</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>12638</v>
+        <v>12032</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>26678</v>
+        <v>26545</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02381737024724813</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01653458154749784</v>
+        <v>0.0157423319338679</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03490373629643037</v>
+        <v>0.03472945947351781</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>45</v>
@@ -10933,19 +10933,19 @@
         <v>44396</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>31571</v>
+        <v>32770</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>60493</v>
+        <v>60648</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02996277110623528</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02130692198769147</v>
+        <v>0.02211655359531619</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04082612532414368</v>
+        <v>0.04093062363167163</v>
       </c>
     </row>
     <row r="30">
@@ -10962,19 +10962,19 @@
         <v>28246</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17599</v>
+        <v>18049</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>44249</v>
+        <v>44384</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.03937259745320598</v>
+        <v>0.03937259745320597</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0245314182013538</v>
+        <v>0.02515887478587542</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06168109586983871</v>
+        <v>0.061868339813537</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>20</v>
@@ -10983,19 +10983,19 @@
         <v>16954</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10188</v>
+        <v>10606</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>27457</v>
+        <v>27373</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.0221817626289156</v>
+        <v>0.02218176262891559</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01332947671052366</v>
+        <v>0.01387666579273733</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0359226696769035</v>
+        <v>0.03581324119362941</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>41</v>
@@ -11004,19 +11004,19 @@
         <v>45200</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>31340</v>
+        <v>32534</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>64695</v>
+        <v>65877</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03050492885957908</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02115100997369952</v>
+        <v>0.02195713115909411</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04366207274191511</v>
+        <v>0.04445978960075225</v>
       </c>
     </row>
     <row r="31">
@@ -11108,19 +11108,19 @@
         <v>780508</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>769854</v>
+        <v>771464</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>786426</v>
+        <v>786590</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.9791714234079236</v>
+        <v>0.9791714234079235</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9658047854050892</v>
+        <v>0.9678246118567724</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9865952883464769</v>
+        <v>0.9868005942313205</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1027</v>
@@ -11129,19 +11129,19 @@
         <v>803813</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>794471</v>
+        <v>795124</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>810682</v>
+        <v>810615</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.97312716160242</v>
+        <v>0.9731271616024203</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9618177776652783</v>
+        <v>0.9626083423976697</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9814438236463036</v>
+        <v>0.9813621614422502</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1771</v>
@@ -11150,19 +11150,19 @@
         <v>1584321</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1571552</v>
+        <v>1572305</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1595320</v>
+        <v>1594836</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.9760954834834641</v>
+        <v>0.9760954834834643</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9682286806218799</v>
+        <v>0.9686926890877869</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9828717432590731</v>
+        <v>0.9825736176530379</v>
       </c>
     </row>
     <row r="33">
@@ -11179,19 +11179,19 @@
         <v>15935</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>9954</v>
+        <v>9995</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>27001</v>
+        <v>25075</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01999126115572195</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01248766293966958</v>
+        <v>0.01253858559088258</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0338740325600863</v>
+        <v>0.03145685993460737</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>26</v>
@@ -11200,19 +11200,19 @@
         <v>20095</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>13565</v>
+        <v>13433</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>28831</v>
+        <v>27848</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02432731485444009</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01642197557022681</v>
+        <v>0.01626271837845435</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.03490451790847923</v>
+        <v>0.03371383128591234</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>42</v>
@@ -11221,19 +11221,19 @@
         <v>36030</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>25625</v>
+        <v>26292</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>48853</v>
+        <v>48521</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02219788970949217</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01578742193357166</v>
+        <v>0.0161985814822197</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03009843215053992</v>
+        <v>0.02989341867538474</v>
       </c>
     </row>
     <row r="34">
@@ -11253,16 +11253,16 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>3975</v>
+        <v>3104</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.0008373154363545709</v>
+        <v>0.0008373154363545708</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.004987007523818752</v>
+        <v>0.003894222722790636</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -11274,16 +11274,16 @@
         <v>586</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5653</v>
+        <v>5901</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.002545523543139817</v>
+        <v>0.002545523543139818</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0007096762074548218</v>
+        <v>0.0007095971075316243</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.006843796880010891</v>
+        <v>0.007143722794664721</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -11292,19 +11292,19 @@
         <v>2770</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>784</v>
+        <v>722</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7313</v>
+        <v>6673</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001706626807043645</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0004830490908816034</v>
+        <v>0.0004445550541960169</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.004505763313408338</v>
+        <v>0.004111523199958392</v>
       </c>
     </row>
     <row r="35">
@@ -11396,19 +11396,19 @@
         <v>3343306</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3311136</v>
+        <v>3314417</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3371021</v>
+        <v>3370588</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.9484257402358232</v>
+        <v>0.9484257402358233</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.9392996819456362</v>
+        <v>0.9402303929318508</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.9562879549842149</v>
+        <v>0.9561650295046346</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>5096</v>
@@ -11417,19 +11417,19 @@
         <v>3537386</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3511962</v>
+        <v>3512639</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3559783</v>
+        <v>3560946</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.9516102972574358</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.9447708498127126</v>
+        <v>0.9449531503599885</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.957635482655021</v>
+        <v>0.957948298908444</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8295</v>
@@ -11438,19 +11438,19 @@
         <v>6880691</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>6837603</v>
+        <v>6841540</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6913790</v>
+        <v>6914116</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.9500602645227754</v>
+        <v>0.9500602645227755</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.9441107967212801</v>
+        <v>0.9446544624329316</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.9546304980902403</v>
+        <v>0.9546754568701026</v>
       </c>
     </row>
     <row r="37">
@@ -11467,19 +11467,19 @@
         <v>131360</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>105394</v>
+        <v>109144</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>156876</v>
+        <v>158904</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.03726408157869515</v>
+        <v>0.03726408157869514</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02989818490045975</v>
+        <v>0.03096186075594612</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04450239140769569</v>
+        <v>0.04507785008172304</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>192</v>
@@ -11488,19 +11488,19 @@
         <v>138125</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>116922</v>
+        <v>118375</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>159948</v>
+        <v>160268</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03715778593160674</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03145372231761837</v>
+        <v>0.03184469606067194</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04302842490110403</v>
+        <v>0.04311443680704311</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>318</v>
@@ -11509,19 +11509,19 @@
         <v>269485</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>242185</v>
+        <v>240880</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>309377</v>
+        <v>306378</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.03720952365569858</v>
+        <v>0.03720952365569859</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03344000433878582</v>
+        <v>0.03325980500220652</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04271764751638848</v>
+        <v>0.04230347987430153</v>
       </c>
     </row>
     <row r="38">
@@ -11538,19 +11538,19 @@
         <v>50445</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>36496</v>
+        <v>36304</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>73548</v>
+        <v>68243</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.01431017818548169</v>
+        <v>0.0143101781854817</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01035326830226094</v>
+        <v>0.01029865284064625</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02086403646699904</v>
+        <v>0.01935910789510804</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>56</v>
@@ -11559,19 +11559,19 @@
         <v>41752</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>31207</v>
+        <v>31916</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>55022</v>
+        <v>54662</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01123191681095753</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.008395121767991467</v>
+        <v>0.008585850604392832</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.0148017762189493</v>
+        <v>0.0147047723069492</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>100</v>
@@ -11580,19 +11580,19 @@
         <v>92197</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>73349</v>
+        <v>74460</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>113452</v>
+        <v>113868</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.0127302118215259</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0101277494168506</v>
+        <v>0.01028110524514072</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01566501183099869</v>
+        <v>0.01572248651618933</v>
       </c>
     </row>
     <row r="39">
